--- a/data/trans_orig/P43D-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>30953</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21865</v>
+        <v>22192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42732</v>
+        <v>42429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1398166654357529</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09876567687687395</v>
+        <v>0.1002437395442209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1930227258805469</v>
+        <v>0.1916551324767167</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>73938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59317</v>
+        <v>59958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88763</v>
+        <v>87638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3339834421631079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2679408969814733</v>
+        <v>0.2708362741839334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4009492142830064</v>
+        <v>0.3958657810028069</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>72206</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59803</v>
+        <v>58773</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87103</v>
+        <v>86852</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.32616043268582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2701366141259501</v>
+        <v>0.2654821233621345</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3934503526301791</v>
+        <v>0.3923174896631875</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>44285</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32917</v>
+        <v>33162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56615</v>
+        <v>57321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2000394597153192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1486868651965604</v>
+        <v>0.1497961756074745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.255734200814947</v>
+        <v>0.2589220251949875</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>35605</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26189</v>
+        <v>25555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47917</v>
+        <v>48009</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1437101165543651</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1057072482099931</v>
+        <v>0.1031452596083465</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1934045431455164</v>
+        <v>0.1937763463183749</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>69870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56972</v>
+        <v>57640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85553</v>
+        <v>86724</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2820135726412333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2299547583065133</v>
+        <v>0.2326506740810781</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3453138524674587</v>
+        <v>0.3500399806780923</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>74449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60837</v>
+        <v>60887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88340</v>
+        <v>90283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3004929107100566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2455530135238993</v>
+        <v>0.2457552530297346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3565604920409394</v>
+        <v>0.3644035917276624</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>67831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54566</v>
+        <v>55237</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82912</v>
+        <v>83393</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2737834000943451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2202410657917962</v>
+        <v>0.2229495277667044</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3346529108087803</v>
+        <v>0.3365950652798713</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>21636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14209</v>
+        <v>14371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30987</v>
+        <v>30773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1997070005610304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1311531417227235</v>
+        <v>0.1326473946638223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2860167422569748</v>
+        <v>0.2840410131718979</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>32939</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24863</v>
+        <v>23857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42566</v>
+        <v>43123</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3040321043827442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2294927957786745</v>
+        <v>0.2202040401080173</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3928932825955267</v>
+        <v>0.3980390322604283</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>32685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23733</v>
+        <v>24005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42863</v>
+        <v>42827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3016937146568914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.219061828671766</v>
+        <v>0.2215767266346971</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3956382166517284</v>
+        <v>0.3953089984667812</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>21079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13639</v>
+        <v>14266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30225</v>
+        <v>30494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.194567180399334</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1258951557465093</v>
+        <v>0.1316807382033284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2789822570255018</v>
+        <v>0.2814655983357962</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>87072</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71203</v>
+        <v>71426</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103396</v>
+        <v>104987</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2198427224008647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1797760731590849</v>
+        <v>0.1803382482466175</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2610575998919454</v>
+        <v>0.2650750005532864</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>139830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120528</v>
+        <v>122508</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>158914</v>
+        <v>160515</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3530481160239102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3043149111932107</v>
+        <v>0.3093132415714598</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4012320114437528</v>
+        <v>0.4052754781252242</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>110578</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>93008</v>
+        <v>92713</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129680</v>
+        <v>129365</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2791921695214545</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2348296455572335</v>
+        <v>0.2340864928205576</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3274202329040513</v>
+        <v>0.326626184620788</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>58585</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44975</v>
+        <v>45384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72985</v>
+        <v>72957</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1479169920537705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1135537897157628</v>
+        <v>0.1145861290019116</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1842755929835156</v>
+        <v>0.1842043716869941</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>69444</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55153</v>
+        <v>55789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>83680</v>
+        <v>84404</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2232115341779503</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1772762487870942</v>
+        <v>0.1793191809565922</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2689688942010338</v>
+        <v>0.2712945132128019</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>109824</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93379</v>
+        <v>93057</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127971</v>
+        <v>127967</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3530005382246688</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3001429353000459</v>
+        <v>0.2991080518953632</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.411331393809528</v>
+        <v>0.4113170078969632</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>75932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61658</v>
+        <v>60602</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>92679</v>
+        <v>91074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2440656407714158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.198183010879457</v>
+        <v>0.1947894577129888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2978939213963472</v>
+        <v>0.292732743278375</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>55914</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>42433</v>
+        <v>42591</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>71087</v>
+        <v>71490</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1797222868259651</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1363892885124278</v>
+        <v>0.1368986725559538</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2284911148277604</v>
+        <v>0.229786350838259</v>
       </c>
     </row>
     <row r="28">
@@ -1369,19 +1369,19 @@
         <v>176829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>157680</v>
+        <v>156642</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>200826</v>
+        <v>200502</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3584038404667748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3195910953758036</v>
+        <v>0.317486985735436</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4070404251073759</v>
+        <v>0.4063835769158995</v>
       </c>
     </row>
     <row r="30">
@@ -1398,19 +1398,19 @@
         <v>127653</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>108379</v>
+        <v>108854</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146274</v>
+        <v>147826</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2587320002400761</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2196671925549019</v>
+        <v>0.2206296334258125</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2964735682788923</v>
+        <v>0.2996181541817777</v>
       </c>
     </row>
     <row r="31">
@@ -1427,19 +1427,19 @@
         <v>105830</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>88189</v>
+        <v>88995</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>124915</v>
+        <v>125896</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2144993025490299</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1787454862751425</v>
+        <v>0.1803780754780504</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2531828141962881</v>
+        <v>0.2551713453666795</v>
       </c>
     </row>
     <row r="32">
@@ -1456,19 +1456,19 @@
         <v>83068</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>67453</v>
+        <v>66928</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99869</v>
+        <v>99001</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1683648567441192</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1367154425217284</v>
+        <v>0.1356513380258709</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2024175346249913</v>
+        <v>0.2006584708549896</v>
       </c>
     </row>
     <row r="33">
@@ -1518,19 +1518,19 @@
         <v>421540</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>385300</v>
+        <v>387567</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>458963</v>
+        <v>456931</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2370816044067958</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2166995886534135</v>
+        <v>0.2179748413667189</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2581290511743419</v>
+        <v>0.2569861064769495</v>
       </c>
     </row>
     <row r="35">
@@ -1547,19 +1547,19 @@
         <v>554054</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>514128</v>
+        <v>513574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>594797</v>
+        <v>594925</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3116099645547438</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2891548318277626</v>
+        <v>0.2888433026490376</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3345245436320975</v>
+        <v>0.3345968136763789</v>
       </c>
     </row>
     <row r="36">
@@ -1576,19 +1576,19 @@
         <v>471680</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>435936</v>
+        <v>437236</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>509415</v>
+        <v>513535</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2652816029844815</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2451784223116947</v>
+        <v>0.2459092921785828</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2865043957660798</v>
+        <v>0.2888213322972223</v>
       </c>
     </row>
     <row r="37">
@@ -1605,19 +1605,19 @@
         <v>330762</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>299166</v>
+        <v>300008</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>365999</v>
+        <v>368424</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1860268280539788</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.168256389117727</v>
+        <v>0.1687297224570595</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2058446564785136</v>
+        <v>0.2072084121778253</v>
       </c>
     </row>
     <row r="38">
@@ -1787,19 +1787,19 @@
         <v>28817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19663</v>
+        <v>19642</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41138</v>
+        <v>43319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1125976637202255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0768313385377271</v>
+        <v>0.07674657591221797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1607424129464367</v>
+        <v>0.1692611591385644</v>
       </c>
     </row>
     <row r="5">
@@ -1816,19 +1816,19 @@
         <v>78271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62529</v>
+        <v>62336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95348</v>
+        <v>95302</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.305832610012489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.24432470340243</v>
+        <v>0.2435685856953834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3725592407514652</v>
+        <v>0.3723782795061862</v>
       </c>
     </row>
     <row r="6">
@@ -1845,19 +1845,19 @@
         <v>97086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80509</v>
+        <v>82407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114214</v>
+        <v>113986</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3793499071681649</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3145780762992396</v>
+        <v>0.3219959723929794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4462750305228103</v>
+        <v>0.4453856303080978</v>
       </c>
     </row>
     <row r="7">
@@ -1874,19 +1874,19 @@
         <v>51754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38745</v>
+        <v>38856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65823</v>
+        <v>65959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2022198190991205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1513900590578852</v>
+        <v>0.1518234834798882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2571953334098836</v>
+        <v>0.2577260505226622</v>
       </c>
     </row>
     <row r="8">
@@ -1936,19 +1936,19 @@
         <v>33842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23744</v>
+        <v>24227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44938</v>
+        <v>46105</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1248939961754516</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08762748288929535</v>
+        <v>0.08941154405800354</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1658450971149504</v>
+        <v>0.1701515414464661</v>
       </c>
     </row>
     <row r="10">
@@ -1965,19 +1965,19 @@
         <v>105193</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89379</v>
+        <v>87725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122789</v>
+        <v>123626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3882204768023176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3298572825452016</v>
+        <v>0.3237550218326206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4531605227179778</v>
+        <v>0.4562487488464375</v>
       </c>
     </row>
     <row r="11">
@@ -1994,19 +1994,19 @@
         <v>94355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79576</v>
+        <v>77112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112119</v>
+        <v>110848</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3482219826568926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2936798708883775</v>
+        <v>0.2845871993038597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4137825688648673</v>
+        <v>0.4090913552160376</v>
       </c>
     </row>
     <row r="12">
@@ -2023,19 +2023,19 @@
         <v>37573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25694</v>
+        <v>26912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50046</v>
+        <v>51643</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1386635443653381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09482523858625196</v>
+        <v>0.09931854690937833</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1846964177515094</v>
+        <v>0.190591838486666</v>
       </c>
     </row>
     <row r="13">
@@ -2085,19 +2085,19 @@
         <v>31112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22145</v>
+        <v>21115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42982</v>
+        <v>41672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1771349351212076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1260786198097998</v>
+        <v>0.1202165872287308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2447160342786094</v>
+        <v>0.2372554574443193</v>
       </c>
     </row>
     <row r="15">
@@ -2114,19 +2114,19 @@
         <v>62854</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50741</v>
+        <v>48971</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>76794</v>
+        <v>76959</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3578548795747185</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2888927762493351</v>
+        <v>0.278812743056212</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4372201084011679</v>
+        <v>0.4381584365677511</v>
       </c>
     </row>
     <row r="16">
@@ -2143,19 +2143,19 @@
         <v>47981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36553</v>
+        <v>37334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59976</v>
+        <v>61425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2731744631793785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2081131676479336</v>
+        <v>0.2125570961487768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3414686018114165</v>
+        <v>0.3497166553456131</v>
       </c>
     </row>
     <row r="17">
@@ -2172,19 +2172,19 @@
         <v>33694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23902</v>
+        <v>24710</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45903</v>
+        <v>46767</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1918357221246954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1360857842491721</v>
+        <v>0.1406844311357221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2613450110439173</v>
+        <v>0.2662666618115664</v>
       </c>
     </row>
     <row r="18">
@@ -2234,19 +2234,19 @@
         <v>90765</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73912</v>
+        <v>73098</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109958</v>
+        <v>109646</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1650825711452442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1344312979741878</v>
+        <v>0.1329500245027463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1999922035528177</v>
+        <v>0.1994246650443226</v>
       </c>
     </row>
     <row r="20">
@@ -2263,19 +2263,19 @@
         <v>178244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159161</v>
+        <v>157278</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204571</v>
+        <v>203451</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3241893877663141</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2894829242322897</v>
+        <v>0.286058007530593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3720733657159198</v>
+        <v>0.3700362966653002</v>
       </c>
     </row>
     <row r="21">
@@ -2292,19 +2292,19 @@
         <v>162561</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>141100</v>
+        <v>139236</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>182162</v>
+        <v>186590</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2956656552110521</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.256632528168237</v>
+        <v>0.2532431719000302</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3313154929261214</v>
+        <v>0.3393700485847134</v>
       </c>
     </row>
     <row r="22">
@@ -2321,19 +2321,19 @@
         <v>118244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99257</v>
+        <v>99647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139554</v>
+        <v>139885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2150623858773896</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1805292319053768</v>
+        <v>0.1812386994537638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2538200749104885</v>
+        <v>0.2544235285632112</v>
       </c>
     </row>
     <row r="23">
@@ -2383,19 +2383,19 @@
         <v>112688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94141</v>
+        <v>94195</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>131887</v>
+        <v>133298</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2337072159187999</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1952409580969181</v>
+        <v>0.195354811799061</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2735249596595821</v>
+        <v>0.2764503828345275</v>
       </c>
     </row>
     <row r="25">
@@ -2412,19 +2412,19 @@
         <v>166000</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144768</v>
+        <v>145524</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187677</v>
+        <v>188039</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.344272478551333</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.300239028524659</v>
+        <v>0.3018063161733278</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3892290980111813</v>
+        <v>0.3899790076621086</v>
       </c>
     </row>
     <row r="26">
@@ -2441,19 +2441,19 @@
         <v>113513</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94060</v>
+        <v>93063</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132590</v>
+        <v>132569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2354180245576401</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1950746736911962</v>
+        <v>0.1930072685365678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2749832469120555</v>
+        <v>0.2749387329047033</v>
       </c>
     </row>
     <row r="27">
@@ -2470,19 +2470,19 @@
         <v>89975</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>73537</v>
+        <v>74722</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>110456</v>
+        <v>108833</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.186602280972227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1525114666628745</v>
+        <v>0.1549687152614251</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2290789125448341</v>
+        <v>0.225713170412891</v>
       </c>
     </row>
     <row r="28">
@@ -2532,19 +2532,19 @@
         <v>148073</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125842</v>
+        <v>126503</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>171188</v>
+        <v>169392</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2686335735451524</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2283015895013002</v>
+        <v>0.2295014795386054</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3105682380041878</v>
+        <v>0.3073101322142821</v>
       </c>
     </row>
     <row r="30">
@@ -2561,19 +2561,19 @@
         <v>197663</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>175437</v>
+        <v>174374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>221550</v>
+        <v>219802</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3585986644638874</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.318277306261829</v>
+        <v>0.3163485385751137</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4019355426100596</v>
+        <v>0.3987627094042251</v>
       </c>
     </row>
     <row r="31">
@@ -2590,19 +2590,19 @@
         <v>122156</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>104490</v>
+        <v>104111</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>145112</v>
+        <v>143551</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.221615106085236</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1895652819049446</v>
+        <v>0.1888781678080529</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2632610504232842</v>
+        <v>0.2604287256469272</v>
       </c>
     </row>
     <row r="32">
@@ -2619,19 +2619,19 @@
         <v>83317</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>67431</v>
+        <v>68058</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>102023</v>
+        <v>103697</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1511526559057242</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1223325401813652</v>
+        <v>0.1234702715167733</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1850889982403256</v>
+        <v>0.1881262986310432</v>
       </c>
     </row>
     <row r="33">
@@ -2681,19 +2681,19 @@
         <v>445296</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>405948</v>
+        <v>405833</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>485587</v>
+        <v>486376</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1948159403695716</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1776012641140208</v>
+        <v>0.1775507302255357</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2124430529148105</v>
+        <v>0.2127880823511333</v>
       </c>
     </row>
     <row r="35">
@@ -2710,19 +2710,19 @@
         <v>788224</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>741384</v>
+        <v>742781</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>830767</v>
+        <v>839023</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3448459734829497</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3243534635618798</v>
+        <v>0.324964818698364</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3634582401358729</v>
+        <v>0.3670701477849612</v>
       </c>
     </row>
     <row r="36">
@@ -2739,19 +2739,19 @@
         <v>637651</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>594492</v>
+        <v>592820</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>685702</v>
+        <v>684313</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2789708286540319</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2600885397627767</v>
+        <v>0.2593571481032047</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2999928469093765</v>
+        <v>0.2993852055229352</v>
       </c>
     </row>
     <row r="37">
@@ -2768,19 +2768,19 @@
         <v>414556</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>378507</v>
+        <v>378381</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>454347</v>
+        <v>454323</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1813672574934468</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1655959903507878</v>
+        <v>0.1655405506441383</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1987757993793541</v>
+        <v>0.1987652347760112</v>
       </c>
     </row>
     <row r="38">
@@ -2950,19 +2950,19 @@
         <v>36026</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25971</v>
+        <v>25940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49148</v>
+        <v>51955</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1328540593848919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09577336090049764</v>
+        <v>0.09565976157731919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1812429999602993</v>
+        <v>0.191594111535952</v>
       </c>
     </row>
     <row r="5">
@@ -2979,19 +2979,19 @@
         <v>112154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94595</v>
+        <v>94627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127540</v>
+        <v>128149</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4135934771533165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3488413622154753</v>
+        <v>0.3489566401087937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4703329768934194</v>
+        <v>0.4725790331794107</v>
       </c>
     </row>
     <row r="6">
@@ -3008,19 +3008,19 @@
         <v>82579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68154</v>
+        <v>67506</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98083</v>
+        <v>99570</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3045276388984451</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2513326995063975</v>
+        <v>0.2489445355653184</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3617039311846692</v>
+        <v>0.3671869982220781</v>
       </c>
     </row>
     <row r="7">
@@ -3037,19 +3037,19 @@
         <v>40411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29504</v>
+        <v>29769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53249</v>
+        <v>53504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1490248245633466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1088040861997665</v>
+        <v>0.1097792073065766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1963684054885162</v>
+        <v>0.197307998307393</v>
       </c>
     </row>
     <row r="8">
@@ -3099,19 +3099,19 @@
         <v>40423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29773</v>
+        <v>28844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52954</v>
+        <v>54467</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1345425006002899</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09909504863108638</v>
+        <v>0.09600443059593937</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.176250436297839</v>
+        <v>0.1812878579858975</v>
       </c>
     </row>
     <row r="10">
@@ -3128,19 +3128,19 @@
         <v>136613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119855</v>
+        <v>119365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155150</v>
+        <v>155295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4547002862967953</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3989249163527937</v>
+        <v>0.3972935005605396</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5163976748815576</v>
+        <v>0.5168814968569519</v>
       </c>
     </row>
     <row r="11">
@@ -3157,19 +3157,19 @@
         <v>79328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64600</v>
+        <v>64016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95653</v>
+        <v>93868</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2640347800135706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2150134108654487</v>
+        <v>0.2130708025878235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3183686095368033</v>
+        <v>0.3124283959056514</v>
       </c>
     </row>
     <row r="12">
@@ -3186,19 +3186,19 @@
         <v>44082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32687</v>
+        <v>31871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59347</v>
+        <v>58793</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1467224330893442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1087940016182349</v>
+        <v>0.106078455672793</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1975312172909822</v>
+        <v>0.1956871402096575</v>
       </c>
     </row>
     <row r="13">
@@ -3248,19 +3248,19 @@
         <v>28620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19763</v>
+        <v>18984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38384</v>
+        <v>38717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2388883014450503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1649604106290136</v>
+        <v>0.1584555831349689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3203895037845828</v>
+        <v>0.3231726302438933</v>
       </c>
     </row>
     <row r="15">
@@ -3277,19 +3277,19 @@
         <v>49965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40058</v>
+        <v>38568</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>62159</v>
+        <v>60869</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4170522413231072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3343632393819138</v>
+        <v>0.3219255926676091</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.518842360408871</v>
+        <v>0.5080715184718425</v>
       </c>
     </row>
     <row r="16">
@@ -3306,19 +3306,19 @@
         <v>28398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19220</v>
+        <v>20167</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38904</v>
+        <v>37930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2370332662004867</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1604266987509135</v>
+        <v>0.1683356199463849</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3247321633891748</v>
+        <v>0.3165965773922674</v>
       </c>
     </row>
     <row r="17">
@@ -3335,19 +3335,19 @@
         <v>12822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7481</v>
+        <v>7135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20947</v>
+        <v>20704</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1070261910313557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06244748656059734</v>
+        <v>0.05955819221639888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1748434152879179</v>
+        <v>0.1728187001386128</v>
       </c>
     </row>
     <row r="18">
@@ -3397,19 +3397,19 @@
         <v>105263</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86992</v>
+        <v>88140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>124803</v>
+        <v>125709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1835551353687079</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1516948104281839</v>
+        <v>0.153696154693549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2176273878819588</v>
+        <v>0.2192084427410834</v>
       </c>
     </row>
     <row r="20">
@@ -3426,19 +3426,19 @@
         <v>249756</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224568</v>
+        <v>226309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271896</v>
+        <v>273806</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4355173232115572</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3915950063008015</v>
+        <v>0.3946307986848093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4741234461002415</v>
+        <v>0.4774552153453112</v>
       </c>
     </row>
     <row r="21">
@@ -3455,19 +3455,19 @@
         <v>132942</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>112139</v>
+        <v>114297</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>153688</v>
+        <v>159083</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.231819543344615</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1955446899651164</v>
+        <v>0.1993073294448807</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2679965103369628</v>
+        <v>0.2774042196445131</v>
       </c>
     </row>
     <row r="22">
@@ -3484,19 +3484,19 @@
         <v>85509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69755</v>
+        <v>69641</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105912</v>
+        <v>105053</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1491079980751199</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.121637148789405</v>
+        <v>0.1214380316475799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1846860704041201</v>
+        <v>0.1831876429300097</v>
       </c>
     </row>
     <row r="23">
@@ -3546,19 +3546,19 @@
         <v>141930</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122592</v>
+        <v>122929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>161593</v>
+        <v>161702</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3140130953438693</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2712294721413556</v>
+        <v>0.2719737719708202</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3575159291744879</v>
+        <v>0.3577577133034636</v>
       </c>
     </row>
     <row r="25">
@@ -3575,19 +3575,19 @@
         <v>176962</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>156491</v>
+        <v>157753</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198239</v>
+        <v>198942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3915198716696998</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3462279219823413</v>
+        <v>0.3490209390597211</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4385935961056206</v>
+        <v>0.4401488520512231</v>
       </c>
     </row>
     <row r="26">
@@ -3604,19 +3604,19 @@
         <v>81645</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67098</v>
+        <v>64690</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99021</v>
+        <v>98580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1806366350307124</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1484504623144687</v>
+        <v>0.1431244320353449</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.219078536896261</v>
+        <v>0.2181044660454754</v>
       </c>
     </row>
     <row r="27">
@@ -3633,19 +3633,19 @@
         <v>51450</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>38758</v>
+        <v>39506</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>67078</v>
+        <v>65997</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1138303979557185</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08575117532533996</v>
+        <v>0.08740447576720202</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1484078563837315</v>
+        <v>0.1460156798599209</v>
       </c>
     </row>
     <row r="28">
@@ -3695,19 +3695,19 @@
         <v>176371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>153377</v>
+        <v>154418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>197735</v>
+        <v>200807</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3434325182394566</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2986585462257558</v>
+        <v>0.3006852799363686</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.385032477732512</v>
+        <v>0.3910154830779473</v>
       </c>
     </row>
     <row r="30">
@@ -3724,19 +3724,19 @@
         <v>201512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>178924</v>
+        <v>177661</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>222956</v>
+        <v>224903</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3923879769037972</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3484032193684575</v>
+        <v>0.3459443442834537</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4341437695004127</v>
+        <v>0.4379345768497578</v>
       </c>
     </row>
     <row r="31">
@@ -3753,19 +3753,19 @@
         <v>88269</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>72548</v>
+        <v>70048</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>106331</v>
+        <v>105759</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1718795802718229</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1412660377670563</v>
+        <v>0.1363980822061997</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2070496225916006</v>
+        <v>0.2059350609968794</v>
       </c>
     </row>
     <row r="32">
@@ -3782,19 +3782,19 @@
         <v>47401</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34589</v>
+        <v>35109</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62929</v>
+        <v>62790</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09229992458492331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06735150417443918</v>
+        <v>0.06836468362928681</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1225358983505824</v>
+        <v>0.1222654067679774</v>
       </c>
     </row>
     <row r="33">
@@ -3844,19 +3844,19 @@
         <v>528633</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>488493</v>
+        <v>486435</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>569860</v>
+        <v>569482</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2370092911961787</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2190127027019841</v>
+        <v>0.2180902724148679</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.255493238190962</v>
+        <v>0.2553239865397117</v>
       </c>
     </row>
     <row r="35">
@@ -3873,19 +3873,19 @@
         <v>926962</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>878603</v>
+        <v>880245</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>976861</v>
+        <v>973850</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4155976948276823</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3939165303997442</v>
+        <v>0.3946524128922899</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4379696999768137</v>
+        <v>0.4366196599452825</v>
       </c>
     </row>
     <row r="36">
@@ -3902,19 +3902,19 @@
         <v>493161</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>455876</v>
+        <v>454558</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>533878</v>
+        <v>531193</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2211056593866815</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2043892591898388</v>
+        <v>0.2037981712714643</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2393609317180201</v>
+        <v>0.2381571292832737</v>
       </c>
     </row>
     <row r="37">
@@ -3931,19 +3931,19 @@
         <v>281675</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>249502</v>
+        <v>252592</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>315005</v>
+        <v>316700</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1262873545894575</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1118626434945248</v>
+        <v>0.1132480381625189</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1412308285831921</v>
+        <v>0.1419905966573256</v>
       </c>
     </row>
     <row r="38">
@@ -4113,19 +4113,19 @@
         <v>45288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36402</v>
+        <v>37517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55334</v>
+        <v>56641</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1812689724219024</v>
+        <v>0.1812689724219025</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1457007019415376</v>
+        <v>0.1501628908625782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2214783174120188</v>
+        <v>0.2267089825250834</v>
       </c>
     </row>
     <row r="5">
@@ -4142,19 +4142,19 @@
         <v>87949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76920</v>
+        <v>75523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101706</v>
+        <v>101530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3520216791981374</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3078768801769229</v>
+        <v>0.3022865329996274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4070843898416593</v>
+        <v>0.4063797116270637</v>
       </c>
     </row>
     <row r="6">
@@ -4171,19 +4171,19 @@
         <v>68498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57605</v>
+        <v>56847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80801</v>
+        <v>81598</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2741667583172205</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2305659159014667</v>
+        <v>0.227534158721006</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3234121367800026</v>
+        <v>0.3266029524830172</v>
       </c>
     </row>
     <row r="7">
@@ -4200,19 +4200,19 @@
         <v>48105</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37942</v>
+        <v>38384</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60335</v>
+        <v>59393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1925425900627397</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1518641384696088</v>
+        <v>0.153633016238706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2414934744784881</v>
+        <v>0.2377252096667605</v>
       </c>
     </row>
     <row r="8">
@@ -4262,19 +4262,19 @@
         <v>42410</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33920</v>
+        <v>33580</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52985</v>
+        <v>53018</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1843033333998779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1474087198786604</v>
+        <v>0.145928271189332</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2302605821306969</v>
+        <v>0.2304008623053719</v>
       </c>
     </row>
     <row r="10">
@@ -4291,19 +4291,19 @@
         <v>72350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62415</v>
+        <v>61367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85158</v>
+        <v>84845</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3144136151351881</v>
+        <v>0.3144136151351882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2712372219759601</v>
+        <v>0.2666860574499409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3700735592676909</v>
+        <v>0.3687144801668913</v>
       </c>
     </row>
     <row r="11">
@@ -4320,19 +4320,19 @@
         <v>72510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60197</v>
+        <v>59396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85144</v>
+        <v>86156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3151075029130416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2616010820212265</v>
+        <v>0.2581171284051539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3700146516818004</v>
+        <v>0.3744102472921805</v>
       </c>
     </row>
     <row r="12">
@@ -4349,19 +4349,19 @@
         <v>42841</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32773</v>
+        <v>33570</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52654</v>
+        <v>53937</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1861755485518923</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1424224190232974</v>
+        <v>0.14588451541293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2288183488120903</v>
+        <v>0.2343957920111169</v>
       </c>
     </row>
     <row r="13">
@@ -4411,19 +4411,19 @@
         <v>24001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18228</v>
+        <v>18119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31077</v>
+        <v>30909</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2948334607120035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.223923989288126</v>
+        <v>0.222575589937951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3817639986391972</v>
+        <v>0.3796935856122625</v>
       </c>
     </row>
     <row r="15">
@@ -4440,19 +4440,19 @@
         <v>28824</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22573</v>
+        <v>22227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35848</v>
+        <v>35841</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3540814335436124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2773017330239205</v>
+        <v>0.2730505990270851</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4403731814653718</v>
+        <v>0.440285063033907</v>
       </c>
     </row>
     <row r="16">
@@ -4469,19 +4469,19 @@
         <v>17595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11989</v>
+        <v>12226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24453</v>
+        <v>24275</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2161451179845701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1472793827398074</v>
+        <v>0.1501889152377084</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3003865115798904</v>
+        <v>0.2981987887468432</v>
       </c>
     </row>
     <row r="17">
@@ -4498,19 +4498,19 @@
         <v>10985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6603</v>
+        <v>6052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16854</v>
+        <v>16893</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1349399877598139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08111934255688802</v>
+        <v>0.07434871733663097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2070472768475916</v>
+        <v>0.2075245395150507</v>
       </c>
     </row>
     <row r="18">
@@ -4560,19 +4560,19 @@
         <v>99709</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85757</v>
+        <v>86613</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113730</v>
+        <v>113224</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2518181136757684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2165806275484059</v>
+        <v>0.218742199155171</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2872271513034811</v>
+        <v>0.2859491433444484</v>
       </c>
     </row>
     <row r="20">
@@ -4589,19 +4589,19 @@
         <v>152332</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136497</v>
+        <v>136227</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169535</v>
+        <v>171672</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3847193224992628</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3447267786516541</v>
+        <v>0.3440439485197712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4281652630555929</v>
+        <v>0.4335634626477195</v>
       </c>
     </row>
     <row r="21">
@@ -4618,19 +4618,19 @@
         <v>82915</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69188</v>
+        <v>69790</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>97785</v>
+        <v>98134</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2094029340168923</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1747359835651453</v>
+        <v>0.1762554212535183</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2469581855257179</v>
+        <v>0.2478409447912149</v>
       </c>
     </row>
     <row r="22">
@@ -4647,19 +4647,19 @@
         <v>61001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48509</v>
+        <v>50085</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73738</v>
+        <v>75283</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1540596298080765</v>
+        <v>0.1540596298080766</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1225119082074388</v>
+        <v>0.1264904083091003</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1862264093842843</v>
+        <v>0.1901284198873298</v>
       </c>
     </row>
     <row r="23">
@@ -4709,19 +4709,19 @@
         <v>114324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101255</v>
+        <v>100961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>128527</v>
+        <v>128439</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3521831031084455</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3119228346880116</v>
+        <v>0.3110169839235653</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3959373189957429</v>
+        <v>0.3956667996964559</v>
       </c>
     </row>
     <row r="25">
@@ -4738,19 +4738,19 @@
         <v>116051</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101640</v>
+        <v>103051</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129297</v>
+        <v>130405</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3575042796786288</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3131108249863188</v>
+        <v>0.3174572451223239</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3983090329770635</v>
+        <v>0.4017227442086315</v>
       </c>
     </row>
     <row r="26">
@@ -4767,19 +4767,19 @@
         <v>59190</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48802</v>
+        <v>49838</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>70516</v>
+        <v>72047</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1823390890842585</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1503394770493066</v>
+        <v>0.1535283429274682</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2172291308296176</v>
+        <v>0.2219451967339505</v>
       </c>
     </row>
     <row r="27">
@@ -4796,19 +4796,19 @@
         <v>35050</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26008</v>
+        <v>26640</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44045</v>
+        <v>45362</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1079735281286671</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0801195746130125</v>
+        <v>0.0820653652347956</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.135683784607226</v>
+        <v>0.1397397576000842</v>
       </c>
     </row>
     <row r="28">
@@ -4858,19 +4858,19 @@
         <v>140414</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125237</v>
+        <v>126431</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>153606</v>
+        <v>155206</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4955489258424501</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4419874009597594</v>
+        <v>0.4461997877656072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5421075049305442</v>
+        <v>0.547754782484204</v>
       </c>
     </row>
     <row r="30">
@@ -4887,19 +4887,19 @@
         <v>80482</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68648</v>
+        <v>67686</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>94855</v>
+        <v>93422</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2840383849467655</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2422720747549082</v>
+        <v>0.2388788843789855</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3347614292659843</v>
+        <v>0.3297067616363383</v>
       </c>
     </row>
     <row r="31">
@@ -4916,19 +4916,19 @@
         <v>41948</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30768</v>
+        <v>32576</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54013</v>
+        <v>54053</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1480417373471593</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1085868551195365</v>
+        <v>0.1149669755661849</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1906245697259777</v>
+        <v>0.1907656372764525</v>
       </c>
     </row>
     <row r="32">
@@ -4945,19 +4945,19 @@
         <v>20506</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14638</v>
+        <v>14309</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29253</v>
+        <v>29525</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0723709518636252</v>
+        <v>0.07237095186362522</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05165899140033917</v>
+        <v>0.05049971709959832</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1032384385065553</v>
+        <v>0.1042014039819756</v>
       </c>
     </row>
     <row r="33">
@@ -5007,19 +5007,19 @@
         <v>466146</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>437902</v>
+        <v>439546</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>498415</v>
+        <v>496169</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2978041309792892</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2797602643514211</v>
+        <v>0.2808103959402342</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3184199615548838</v>
+        <v>0.3169850304291559</v>
       </c>
     </row>
     <row r="35">
@@ -5036,19 +5036,19 @@
         <v>537989</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>504637</v>
+        <v>506724</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>569731</v>
+        <v>569704</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3437018682535765</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3223944232866472</v>
+        <v>0.3237281778735235</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.363980678457115</v>
+        <v>0.3639634520318968</v>
       </c>
     </row>
     <row r="36">
@@ -5065,19 +5065,19 @@
         <v>342655</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>314761</v>
+        <v>315314</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>371926</v>
+        <v>370876</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2189099876952582</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2010893831910163</v>
+        <v>0.2014427971649093</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2376106345862043</v>
+        <v>0.2369395451868681</v>
       </c>
     </row>
     <row r="37">
@@ -5094,19 +5094,19 @@
         <v>218488</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>196549</v>
+        <v>194427</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>243052</v>
+        <v>243336</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1395840130718762</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1255683909603232</v>
+        <v>0.1242122536256929</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1552774984787235</v>
+        <v>0.1554589355291622</v>
       </c>
     </row>
     <row r="38">
